--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/123/correct_predictions_123.xlsx
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>4-23</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1766,52 +1766,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1826,37 +1826,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1886,52 +1886,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1946,42 +1946,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2006,52 +2006,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-11</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2096,22 +2096,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Insufficient SD card space</t>
+          <t>Change card or delete files</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-60_original/ori2/123/correct_predictions_123.xlsx
@@ -1607,26 +1607,26 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
+          <t>Extra payload detected . Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>4-23</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1646,52 +1646,52 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Take care of your gimbal when landing</t>
+          <t>Failed to lower or pack up landing gear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9-15</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+          <t>Failed to lower or pack up landing gear . Take care of your gimbal when landing .</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
+          <t>Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0-13</t>
+          <t>9-15</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1706,42 +1706,42 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15-17</t>
+          <t>0-13</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GPS module error . Restart aircraft .</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>15-17</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1766,52 +1766,52 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GPS module error</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed . Restart aircraft .</t>
+          <t>GPS module error . Restart aircraft .</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>GPS module error</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1826,37 +1826,37 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>High wind velocity . Fly with caution .</t>
+          <t>Gyroscope initialization failed . Restart aircraft .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>High wind velocity</t>
+          <t>Gyroscope initialization failed</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1886,52 +1886,52 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>High wind velocity</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted . Ensure aircraft is level .</t>
+          <t>High wind velocity . Fly with caution .</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>IMU attitude restricted</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1946,42 +1946,42 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ensure aircraft is level</t>
+          <t>IMU attitude restricted</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
+          <t>IMU attitude restricted . Ensure aircraft is level .</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Calibrate IMU</t>
+          <t>Ensure aircraft is level</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2006,52 +2006,52 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>IMU calibration required</t>
+          <t>Calibrate IMU</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
+          <t>IMU calibration required . Calibrate IMU .</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Go to Profile &gt; Settings to update firmware</t>
+          <t>IMU calibration required</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4-11</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -2096,22 +2096,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Change card or delete files</t>
+          <t>Insufficient SD card space</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
